--- a/penguji/db_nilai.xlsx
+++ b/penguji/db_nilai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinkpad\OneDrive\Documents\WEBSITE\uktpagarnusa\penguji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5084B4C2-E42F-49CC-9556-281ACD1E8985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3046CBAB-B35C-4B29-8FE1-112A9FDBE31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{C90172FA-9549-4883-B5C1-C1958433D4C2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Kelompok</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Nama</t>
   </si>
   <si>
-    <t>Muhammad Ibnu Mundzir</t>
-  </si>
-  <si>
     <t>Dwi Nur Aini</t>
   </si>
   <si>
@@ -52,6 +49,42 @@
   </si>
   <si>
     <t>Ardan Mizanul Khoiri</t>
+  </si>
+  <si>
+    <t>Wilda Nazwatun Nisa</t>
+  </si>
+  <si>
+    <t>Dede Ahmad Fauzan</t>
+  </si>
+  <si>
+    <t>Mochammad Wafi Nur Jihan</t>
+  </si>
+  <si>
+    <t>Hoirul Sambudi</t>
+  </si>
+  <si>
+    <t>Dinda Ayuni</t>
+  </si>
+  <si>
+    <t>Ramlan</t>
+  </si>
+  <si>
+    <t>Fadli Al Masani</t>
+  </si>
+  <si>
+    <t>Agung Prayuda</t>
+  </si>
+  <si>
+    <t>Khairun Anwar</t>
+  </si>
+  <si>
+    <t>Nurul Hidayah Harahap</t>
+  </si>
+  <si>
+    <t>Citra Hayatunnufus</t>
+  </si>
+  <si>
+    <t>Muhamad Maulana Naufal Widodo</t>
   </si>
 </sst>
 </file>
@@ -410,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD6DEBA-8A2D-4EF7-8E66-03D5B04D1560}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -434,32 +467,120 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
+      <c r="B3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
         <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/penguji/db_nilai.xlsx
+++ b/penguji/db_nilai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinkpad\OneDrive\Documents\WEBSITE\uktpagarnusa\penguji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0D6527-94E1-4E9C-83BF-4FF0B8CD238D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF250112-120D-4029-A19E-122E9AEB913B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{C90172FA-9549-4883-B5C1-C1958433D4C2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Kelompok</t>
   </si>
@@ -84,14 +84,20 @@
     <t>Citra Hayatunnufus</t>
   </si>
   <si>
-    <t>Muhamad Maulana Naufal Widodo</t>
+    <t>Syahrul Mubarok</t>
+  </si>
+  <si>
+    <t>Nur Zalfa Sahiyah</t>
+  </si>
+  <si>
+    <t>Muhammad Maulana Naufal Widodo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +105,19 @@
       <family val="2"/>
       <charset val="1"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,13 +140,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,145 +478,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD6DEBA-8A2D-4EF7-8E66-03D5B04D1560}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="48.08984375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="25.36328125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.1796875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>6</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
